--- a/doc/performance tests/Performance_LINUX.xlsx
+++ b/doc/performance tests/Performance_LINUX.xlsx
@@ -31,9 +31,6 @@
     <t>Fast CDR</t>
   </si>
   <si>
-    <t>Minimum Time (seconds)</t>
-  </si>
-  <si>
     <t>Google Protocol Buffers</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>GOOGLE PROTOCOL BUFFERS</t>
+  </si>
+  <si>
+    <t>Minimum Time (microseconds)</t>
   </si>
 </sst>
 </file>
@@ -504,6 +504,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -776,11 +777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153480576"/>
-        <c:axId val="153481152"/>
+        <c:axId val="103537408"/>
+        <c:axId val="103537984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153480576"/>
+        <c:axId val="103537408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,18 +803,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153481152"/>
+        <c:crossAx val="103537984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153481152"/>
+        <c:axId val="103537984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,24 +833,26 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Time (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153480576"/>
+        <c:crossAx val="103537408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -918,6 +922,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1190,11 +1195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153483456"/>
-        <c:axId val="153484032"/>
+        <c:axId val="145950400"/>
+        <c:axId val="145950976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153483456"/>
+        <c:axId val="145950400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,18 +1221,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153484032"/>
+        <c:crossAx val="145950976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153484032"/>
+        <c:axId val="145950976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,24 +1251,26 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Time (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153483456"/>
+        <c:crossAx val="145950400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1332,6 +1340,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1604,11 +1613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48211072"/>
-        <c:axId val="48211648"/>
+        <c:axId val="145953280"/>
+        <c:axId val="145953856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48211072"/>
+        <c:axId val="145953280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,18 +1639,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48211648"/>
+        <c:crossAx val="145953856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48211648"/>
+        <c:axId val="145953856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,24 +1669,26 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Time (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48211072"/>
+        <c:crossAx val="145953280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1922,7 +1934,7 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>1.6E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.48</c:v>
@@ -2013,11 +2025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48213952"/>
-        <c:axId val="48214528"/>
+        <c:axId val="145956160"/>
+        <c:axId val="146055168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48213952"/>
+        <c:axId val="145956160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,12 +2058,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48214528"/>
+        <c:crossAx val="146055168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48214528"/>
+        <c:axId val="146055168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +2081,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Time (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2081,7 +2093,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48213952"/>
+        <c:crossAx val="145956160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2541,7 +2553,7 @@
   <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,21 +2567,21 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>3</v>
@@ -2578,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2611,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -2767,7 +2779,7 @@
   <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,21 +2793,21 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>3</v>
@@ -2804,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2837,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -2993,7 +3005,7 @@
   <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,21 +3019,21 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>3</v>
@@ -3030,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3063,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -3219,7 +3231,7 @@
   <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,21 +3245,21 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>3</v>
@@ -3256,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3289,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -3327,7 +3339,8 @@
         <v>160</v>
       </c>
       <c r="D7" s="9">
-        <v>0.16</v>
+        <f>0.16/1000000</f>
+        <v>1.6E-7</v>
       </c>
       <c r="E7" s="9">
         <v>1.1000000000000001</v>
